--- a/python-excel-top-n-by-group.xlsx
+++ b/python-excel-top-n-by-group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443449F7-8325-49E7-A7EF-974441578A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36248AC-27FB-4A6D-BD2B-19EA942E7357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,19 +74,28 @@
   </environmentDefinition>
   <pythonScripts>
     <pythonScript>
-      <code xml:space="preserve">user_choice = xl(%P2%)
+      <code>user_choice = xl(%P2%)
 n_employees = xl(%P3%)
 sales_df = xl(%P4%, headers=True)
-def dynamic_filter_sales(df, n, choice):
-    # Group by 'Region' and 'Employee' and sum the sales
-    df_grouped = df.groupby(['Region', 'Employee']).sum()
+def dynamic_filter_sales(df, n, choice, group_columns, sum_column):
+    # Validate if provided group columns exist in the DataFrame
+    if not all(col in df.columns for col in group_columns):
+        raise ValueError("One or more group columns do not exist in the DataFrame")
+    # Validate if the sum column exists in the DataFrame
+    if sum_column not in df.columns:
+        raise ValueError("Sum column does not exist in the DataFrame")
+    # Group by the specified columns and sum the specified column
+    df_grouped = df.groupby(group_columns).agg({sum_column: 'sum'})
     # Assuming 'choice' is either 'nlargest' or 'nsmallest'
     if choice in ["nlargest", "nsmallest"]:
-        method = getattr(df_grouped['Sales'].groupby(level=0, group_keys=False), choice)
+        # Use the method specified by 'choice' on the summed data
+        method = getattr(df_grouped[sum_column].groupby(level=0, group_keys=False), choice)
         return method(n)
     else:
         raise ValueError("Choice must be 'nlargest' or 'nsmallest'")
-dynamic_filter_sales(sales_df, n_employees, user_choice)   </code>
+group_cols = ['Region', 'Employee']  
+sum_col = 'Sales'  
+dynamic_filter_sales(sales_df, n_employees, user_choice, group_cols, sum_col)</code>
     </pythonScript>
   </pythonScripts>
 </python>
@@ -502,6 +511,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -530,20 +553,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -558,7 +567,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70CC5EE4-7D9B-45FA-8313-15243707CCFB}" name="sales" displayName="sales" ref="A1:C101" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70CC5EE4-7D9B-45FA-8313-15243707CCFB}" name="sales" displayName="sales" ref="A1:C101" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:C101" xr:uid="{70CC5EE4-7D9B-45FA-8313-15243707CCFB}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{0C8ACADE-1901-4D10-805D-3F5BEC09F7C2}" name="Region"/>
@@ -889,7 +898,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -913,7 +922,7 @@
         <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -930,7 +939,7 @@
         <v>108</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -966,7 +975,7 @@
         <v>3371</v>
       </c>
       <c r="E5" t="str" cm="1">
-        <f t="array" ref="E5:G41">_xlfn._xlws.PY(0,0,'top-bottom'!D2,F2,sales[#All])</f>
+        <f t="array" ref="E5:G25">_xlfn._xlws.PY(0,0,'top-bottom'!D2,F2,sales[#All])</f>
         <v>Region</v>
       </c>
       <c r="F5" t="str">
@@ -990,10 +999,10 @@
         <v>East</v>
       </c>
       <c r="F6" t="str">
-        <v>Employee_79</v>
+        <v>Employee_84</v>
       </c>
       <c r="G6">
-        <v>1055</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1010,10 +1019,10 @@
         <v>East</v>
       </c>
       <c r="F7" t="str">
-        <v>Employee_34</v>
+        <v>Employee_17</v>
       </c>
       <c r="G7">
-        <v>1225</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1030,10 +1039,10 @@
         <v>East</v>
       </c>
       <c r="F8" t="str">
-        <v>Employee_28</v>
+        <v>Employee_94</v>
       </c>
       <c r="G8">
-        <v>1543</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1050,10 +1059,10 @@
         <v>East</v>
       </c>
       <c r="F9" t="str">
-        <v>Employee_14</v>
+        <v>Employee_51</v>
       </c>
       <c r="G9">
-        <v>1575</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -1070,10 +1079,10 @@
         <v>East</v>
       </c>
       <c r="F10" t="str">
-        <v>Employee_72</v>
+        <v>Employee_11</v>
       </c>
       <c r="G10">
-        <v>1580</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -1087,13 +1096,13 @@
         <v>2620</v>
       </c>
       <c r="E11" t="str">
-        <v>East</v>
+        <v>North</v>
       </c>
       <c r="F11" t="str">
-        <v>Employee_61</v>
+        <v>Employee_62</v>
       </c>
       <c r="G11">
-        <v>1726</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1107,13 +1116,13 @@
         <v>4327</v>
       </c>
       <c r="E12" t="str">
-        <v>East</v>
+        <v>North</v>
       </c>
       <c r="F12" t="str">
-        <v>Employee_40</v>
+        <v>Employee_27</v>
       </c>
       <c r="G12">
-        <v>1780</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -1127,13 +1136,13 @@
         <v>4572</v>
       </c>
       <c r="E13" t="str">
-        <v>East</v>
+        <v>North</v>
       </c>
       <c r="F13" t="str">
-        <v>Employee_18</v>
+        <v>Employee_29</v>
       </c>
       <c r="G13">
-        <v>1790</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -1147,13 +1156,13 @@
         <v>2440</v>
       </c>
       <c r="E14" t="str">
-        <v>East</v>
+        <v>North</v>
       </c>
       <c r="F14" t="str">
-        <v>Employee_42</v>
+        <v>Employee_24</v>
       </c>
       <c r="G14">
-        <v>1986</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -1170,10 +1179,10 @@
         <v>North</v>
       </c>
       <c r="F15" t="str">
-        <v>Employee_9</v>
+        <v>Employee_87</v>
       </c>
       <c r="G15">
-        <v>1305</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1187,13 +1196,13 @@
         <v>4187</v>
       </c>
       <c r="E16" t="str">
-        <v>North</v>
+        <v>South</v>
       </c>
       <c r="F16" t="str">
-        <v>Employee_35</v>
+        <v>Employee_95</v>
       </c>
       <c r="G16">
-        <v>1769</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1207,13 +1216,13 @@
         <v>3834</v>
       </c>
       <c r="E17" t="str">
-        <v>North</v>
+        <v>South</v>
       </c>
       <c r="F17" t="str">
-        <v>Employee_36</v>
+        <v>Employee_58</v>
       </c>
       <c r="G17">
-        <v>1961</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1227,13 +1236,13 @@
         <v>4726</v>
       </c>
       <c r="E18" t="str">
-        <v>North</v>
+        <v>South</v>
       </c>
       <c r="F18" t="str">
-        <v>Employee_55</v>
+        <v>Employee_53</v>
       </c>
       <c r="G18">
-        <v>1965</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1247,13 +1256,13 @@
         <v>1790</v>
       </c>
       <c r="E19" t="str">
-        <v>North</v>
+        <v>South</v>
       </c>
       <c r="F19" t="str">
-        <v>Employee_75</v>
+        <v>Employee_67</v>
       </c>
       <c r="G19">
-        <v>2073</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1267,13 +1276,13 @@
         <v>1921</v>
       </c>
       <c r="E20" t="str">
-        <v>North</v>
+        <v>South</v>
       </c>
       <c r="F20" t="str">
-        <v>Employee_63</v>
+        <v>Employee_73</v>
       </c>
       <c r="G20">
-        <v>2103</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1287,13 +1296,13 @@
         <v>2264</v>
       </c>
       <c r="E21" t="str">
-        <v>North</v>
+        <v>West</v>
       </c>
       <c r="F21" t="str">
-        <v>Employee_85</v>
+        <v>Employee_12</v>
       </c>
       <c r="G21">
-        <v>2144</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1307,13 +1316,13 @@
         <v>2924</v>
       </c>
       <c r="E22" t="str">
-        <v>North</v>
+        <v>West</v>
       </c>
       <c r="F22" t="str">
-        <v>Employee_92</v>
+        <v>Employee_96</v>
       </c>
       <c r="G22">
-        <v>2178</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1327,13 +1336,13 @@
         <v>2715</v>
       </c>
       <c r="E23" t="str">
-        <v>North</v>
+        <v>West</v>
       </c>
       <c r="F23" t="str">
-        <v>Employee_57</v>
+        <v>Employee_15</v>
       </c>
       <c r="G23">
-        <v>2270</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1347,13 +1356,13 @@
         <v>3648</v>
       </c>
       <c r="E24" t="str">
-        <v>South</v>
+        <v>West</v>
       </c>
       <c r="F24" t="str">
-        <v>Employee_39</v>
+        <v>Employee_16</v>
       </c>
       <c r="G24">
-        <v>1060</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1367,13 +1376,13 @@
         <v>4005</v>
       </c>
       <c r="E25" t="str">
-        <v>South</v>
+        <v>West</v>
       </c>
       <c r="F25" t="str">
-        <v>Employee_46</v>
+        <v>Employee_52</v>
       </c>
       <c r="G25">
-        <v>1063</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1386,15 +1395,6 @@
       <c r="C26">
         <v>1160</v>
       </c>
-      <c r="E26" t="str">
-        <v>South</v>
-      </c>
-      <c r="F26" t="str">
-        <v>Employee_80</v>
-      </c>
-      <c r="G26">
-        <v>1072</v>
-      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
@@ -1405,15 +1405,6 @@
       </c>
       <c r="C27">
         <v>1920</v>
-      </c>
-      <c r="E27" t="str">
-        <v>South</v>
-      </c>
-      <c r="F27" t="str">
-        <v>Employee_71</v>
-      </c>
-      <c r="G27">
-        <v>1383</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1426,15 +1417,6 @@
       <c r="C28">
         <v>4291</v>
       </c>
-      <c r="E28" t="str">
-        <v>South</v>
-      </c>
-      <c r="F28" t="str">
-        <v>Employee_91</v>
-      </c>
-      <c r="G28">
-        <v>1547</v>
-      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
@@ -1445,15 +1427,6 @@
       </c>
       <c r="C29">
         <v>1543</v>
-      </c>
-      <c r="E29" t="str">
-        <v>South</v>
-      </c>
-      <c r="F29" t="str">
-        <v>Employee_86</v>
-      </c>
-      <c r="G29">
-        <v>1571</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -1466,15 +1439,6 @@
       <c r="C30">
         <v>4270</v>
       </c>
-      <c r="E30" t="str">
-        <v>South</v>
-      </c>
-      <c r="F30" t="str">
-        <v>Employee_98</v>
-      </c>
-      <c r="G30">
-        <v>1571</v>
-      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
@@ -1486,15 +1450,6 @@
       <c r="C31">
         <v>2925</v>
       </c>
-      <c r="E31" t="str">
-        <v>South</v>
-      </c>
-      <c r="F31" t="str">
-        <v>Employee_48</v>
-      </c>
-      <c r="G31">
-        <v>1618</v>
-      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
@@ -1506,17 +1461,8 @@
       <c r="C32">
         <v>3845</v>
       </c>
-      <c r="E32" t="str">
-        <v>South</v>
-      </c>
-      <c r="F32" t="str">
-        <v>Employee_81</v>
-      </c>
-      <c r="G32">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1526,17 +1472,8 @@
       <c r="C33">
         <v>2116</v>
       </c>
-      <c r="E33" t="str">
-        <v>West</v>
-      </c>
-      <c r="F33" t="str">
-        <v>Employee_25</v>
-      </c>
-      <c r="G33">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1546,17 +1483,8 @@
       <c r="C34">
         <v>3477</v>
       </c>
-      <c r="E34" t="str">
-        <v>West</v>
-      </c>
-      <c r="F34" t="str">
-        <v>Employee_44</v>
-      </c>
-      <c r="G34">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1566,17 +1494,8 @@
       <c r="C35">
         <v>1225</v>
       </c>
-      <c r="E35" t="str">
-        <v>West</v>
-      </c>
-      <c r="F35" t="str">
-        <v>Employee_69</v>
-      </c>
-      <c r="G35">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1586,17 +1505,8 @@
       <c r="C36">
         <v>1769</v>
       </c>
-      <c r="E36" t="str">
-        <v>West</v>
-      </c>
-      <c r="F36" t="str">
-        <v>Employee_26</v>
-      </c>
-      <c r="G36">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1606,17 +1516,8 @@
       <c r="C37">
         <v>1961</v>
       </c>
-      <c r="E37" t="str">
-        <v>West</v>
-      </c>
-      <c r="F37" t="str">
-        <v>Employee_43</v>
-      </c>
-      <c r="G37">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1626,17 +1527,8 @@
       <c r="C38">
         <v>1921</v>
       </c>
-      <c r="E38" t="str">
-        <v>West</v>
-      </c>
-      <c r="F38" t="str">
-        <v>Employee_90</v>
-      </c>
-      <c r="G38">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1646,17 +1538,8 @@
       <c r="C39">
         <v>3675</v>
       </c>
-      <c r="E39" t="str">
-        <v>West</v>
-      </c>
-      <c r="F39" t="str">
-        <v>Employee_47</v>
-      </c>
-      <c r="G39">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1666,17 +1549,8 @@
       <c r="C40">
         <v>1060</v>
       </c>
-      <c r="E40" t="str">
-        <v>West</v>
-      </c>
-      <c r="F40" t="str">
-        <v>Employee_32</v>
-      </c>
-      <c r="G40">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1686,17 +1560,8 @@
       <c r="C41">
         <v>1780</v>
       </c>
-      <c r="E41" t="str">
-        <v>West</v>
-      </c>
-      <c r="F41" t="str">
-        <v>Employee_50</v>
-      </c>
-      <c r="G41">
-        <v>2149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1707,7 +1572,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1718,7 +1583,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1729,7 +1594,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1740,7 +1605,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +1616,7 @@
         <v>4042</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1762,7 +1627,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2386,7 +2251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E982CA-8C97-4B85-9C0B-0E5FCC267C77}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2412,7 +2277,7 @@
       </c>
       <c r="D2" t="str">
         <f>_xlfn.XLOOKUP(display!F1, 'top-bottom'!A1:A2, 'top-bottom'!B1:B2)</f>
-        <v>nsmallest</v>
+        <v>nlargest</v>
       </c>
     </row>
   </sheetData>
